--- a/biology/Botanique/Empetrum_nigrum/Empetrum_nigrum.xlsx
+++ b/biology/Botanique/Empetrum_nigrum/Empetrum_nigrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Camarine noire (Empetrum nigrum) est une espèce de plantes à fleurs de la famille des Éricacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un sous-arbrisseau persistant.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante pousse sur sol acide principalement dans les landes humides. Dans les zones froides, on la rencontre en plaine, dans les zones tempérées, c’est une plante de montagne.
 La camarine noire est présente dans les zones tempérées et froides de l’hémisphère boréal.
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante, qui atteint 15 à 45 cm de hauteur, a des tiges couchées enracinantes et à extrémités dressées de couleur rouge.
 Les tiges sont densément couvertes de petites feuilles linéaires et à marge entièrement enroulée, de 4 à 6 mm de long et de 1 à 2 mm de large.
@@ -616,7 +634,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les taxons présents en Asie sont rattachées à la var. asiaticum, ceux d’Extrême-Orient à la var. japonicum.
 La camarine pourpre ou goule rouge, un taxon très semblable à baies pourpres du Nord-est du continent américain – appelée jadis Empetrum nigrum var. atropurpureum (Fern. &amp; Wieg.) Boivin (Syn. Empetrum atropurpureum Fern. &amp; Wieg.) – est actuellement élevée au rang d’espèce : Empetrum eamesii Fern. &amp; Wieg. La sous-espèce atropurpureum (Fern. &amp; Wieg.) D. Löve a des baies d'un pourpre plus foncé.</t>
